--- a/biology/Botanique/La_Fine_Fleur/La_Fine_Fleur.xlsx
+++ b/biology/Botanique/La_Fine_Fleur/La_Fine_Fleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fine Fleur est une comédie française réalisée par Pierre Pinaud et sortie en 2020.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ève, une créatrice de roses renommée, dirige une entreprise horticole héritée de son père, qui connaît de graves difficultés financières. Sa secrétaire a recruté trois employés en contrat de réinsertion sans formation horticole.
 Le nom et les compétences d'Ève sont convoités par un concurrent puissant, Lamarzelle, qu'elle ne supporte pas, car il ne partage pas son éthique professionnelle et est avant tout guidé par la soif de profit. 
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : La Fine Fleur
 Réalisation : Pierre Pinaud
@@ -567,7 +583,7 @@
 Genre : comédie dramatique
 Durée : 94 minutes
 Dates de sortie :
-France : 29 août 2020 (festival du film francophone d'Angoulême)[1] ; 30 juin 2021 (en salles)
+France : 29 août 2020 (festival du film francophone d'Angoulême) ; 30 juin 2021 (en salles)
 Belgique, Suisse romande : 30 juin 2021</t>
         </is>
       </c>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Catherine Frot : Ève
 Melan Omerta : Fred
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,11 +682,13 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sur le site Allociné, le film obtient la note de 3,3/5, sur la base de 20 critiques[2]. 
-Yannick Vély souligne dans Paris-Match le jeu de Catherine Frot, « tout en nuance et en fantaisie », ainsi que les images de Guillaume Desfontaines, mais déplore un scénario sans surprises[3]. Le Figaro considère le film comme une « comédie gracieuse et plus profonde qu'il n'y parait » où Catherine Frot excelle[4].
-Box-office</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site Allociné, le film obtient la note de 3,3/5, sur la base de 20 critiques. 
+Yannick Vély souligne dans Paris-Match le jeu de Catherine Frot, « tout en nuance et en fantaisie », ainsi que les images de Guillaume Desfontaines, mais déplore un scénario sans surprises. Le Figaro considère le film comme une « comédie gracieuse et plus profonde qu'il n'y parait » où Catherine Frot excelle.
+</t>
         </is>
       </c>
     </row>
